--- a/ExcelFile/NhanVien/triet.xlsx
+++ b/ExcelFile/NhanVien/triet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\javaprject\JAVA2_DOAN_CuaHangGIay\ExcelFile\Nhanvien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nam2HK2\JAVA2_DOAN_CuaHangSach\ExcelFile\NhanVien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E88D1A8-5380-4421-B6D4-2F37ABBF1791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA35CE8-3707-4D7A-8DA1-A0F43CCB37D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="1116" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5076" yWindow="1104" windowWidth="17148" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thông tin nhân viên" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Mã nhân viên</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Quê quán</t>
   </si>
   <si>
-    <t>Số ngày làm</t>
-  </si>
-  <si>
     <t>Công việc</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
   </si>
   <si>
     <t>Quang</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>Admin</t>
@@ -524,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,127 +539,103 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>234234</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -688,118 +658,118 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -810,13 +780,13 @@
         <v>1213</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
